--- a/data/financial_statements/sofp/BMY.xlsx
+++ b/data/financial_statements/sofp/BMY.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -140,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -195,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -505,144 +616,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>9191000000</v>
+        <v>9027000000</v>
       </c>
       <c r="C2">
-        <v>13419000000</v>
+        <v>13228000000</v>
       </c>
       <c r="D2">
-        <v>15351000000</v>
+        <v>14968000000</v>
       </c>
       <c r="E2">
-        <v>17361000000</v>
+        <v>16966000000</v>
       </c>
       <c r="F2">
-        <v>15963000000</v>
+        <v>15663000000</v>
       </c>
       <c r="G2">
         <v>12970000000</v>
@@ -748,23 +859,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>13240000000</v>
+        <v>9613000000</v>
       </c>
       <c r="C3">
-        <v>12540000000</v>
+        <v>9054000000</v>
       </c>
       <c r="D3">
-        <v>11103000000</v>
+        <v>8511000000</v>
       </c>
       <c r="E3">
-        <v>12516000000</v>
+        <v>9369000000</v>
       </c>
       <c r="F3">
-        <v>11738000000</v>
+        <v>9245000000</v>
       </c>
       <c r="G3">
         <v>9017000000</v>
@@ -870,8 +981,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2074000000</v>
@@ -992,23 +1103,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>2291000000</v>
+        <v>6082000000</v>
       </c>
       <c r="C5">
-        <v>2085000000</v>
+        <v>5762000000</v>
       </c>
       <c r="D5">
-        <v>1563000000</v>
+        <v>4538000000</v>
       </c>
       <c r="E5">
-        <v>1290000000</v>
+        <v>4832000000</v>
       </c>
       <c r="F5">
-        <v>1579000000</v>
+        <v>4372000000</v>
       </c>
       <c r="G5">
         <v>5037000000</v>
@@ -1057,8 +1168,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>26796000000</v>
@@ -1179,23 +1290,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>6918000000</v>
+        <v>6035000000</v>
       </c>
       <c r="C7">
-        <v>6810000000</v>
+        <v>5970000000</v>
       </c>
       <c r="D7">
-        <v>6941000000</v>
+        <v>6047000000</v>
       </c>
       <c r="E7">
-        <v>6968000000</v>
+        <v>6049000000</v>
       </c>
       <c r="F7">
-        <v>6835000000</v>
+        <v>5868000000</v>
       </c>
       <c r="G7">
         <v>5795000000</v>
@@ -1301,8 +1412,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2018000000</v>
@@ -1317,7 +1428,7 @@
         <v>2910000000</v>
       </c>
       <c r="F8">
-        <v>5604000000</v>
+        <v>46000000</v>
       </c>
       <c r="G8">
         <v>143000000</v>
@@ -1423,8 +1534,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>59291000000</v>
@@ -1545,8 +1656,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>1329000000</v>
@@ -1667,23 +1778,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>1844000000</v>
+        <v>4745000000</v>
       </c>
       <c r="C11">
-        <v>1858000000</v>
+        <v>4728000000</v>
       </c>
       <c r="D11">
-        <v>1711000000</v>
+        <v>4845000000</v>
       </c>
       <c r="E11">
-        <v>1706000000</v>
+        <v>5535000000</v>
       </c>
       <c r="F11">
-        <v>878000000</v>
+        <v>7403000000</v>
       </c>
       <c r="G11">
         <v>6454000000</v>
@@ -1789,8 +1900,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>71400000000</v>
@@ -1911,8 +2022,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>98196000000</v>
@@ -2033,8 +2144,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2595000000</v>
@@ -2155,8 +2266,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AD15">
         <v>636000000</v>
@@ -2193,8 +2304,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N16">
         <v>8032000000</v>
@@ -2246,23 +2357,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>2299000000</v>
+        <v>2132000000</v>
       </c>
       <c r="C17">
-        <v>5120000000</v>
+        <v>4953000000</v>
       </c>
       <c r="D17">
-        <v>7693000000</v>
+        <v>7522000000</v>
       </c>
       <c r="E17">
-        <v>5117000000</v>
+        <v>4948000000</v>
       </c>
       <c r="F17">
-        <v>5238000000</v>
+        <v>5065000000</v>
       </c>
       <c r="G17">
         <v>2655000000</v>
@@ -2368,8 +2479,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="P18">
         <v>525000000</v>
@@ -2445,8 +2556,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P19">
         <v>103000000</v>
@@ -2522,23 +2633,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>12749000000</v>
+        <v>14203000000</v>
       </c>
       <c r="C20">
-        <v>11772000000</v>
+        <v>13080000000</v>
       </c>
       <c r="D20">
-        <v>11254000000</v>
+        <v>12355000000</v>
       </c>
       <c r="E20">
-        <v>13048000000</v>
+        <v>13971000000</v>
       </c>
       <c r="F20">
-        <v>12776000000</v>
+        <v>13700000000</v>
       </c>
       <c r="G20">
         <v>12727000000</v>
@@ -2569,8 +2680,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>18930000000</v>
@@ -2691,23 +2802,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>37811000000</v>
+        <v>36966000000</v>
       </c>
       <c r="C22">
-        <v>37922000000</v>
+        <v>37107000000</v>
       </c>
       <c r="D22">
-        <v>38302000000</v>
+        <v>37450000000</v>
       </c>
       <c r="E22">
-        <v>40479000000</v>
+        <v>39605000000</v>
       </c>
       <c r="F22">
-        <v>40606000000</v>
+        <v>39677000000</v>
       </c>
       <c r="G22">
         <v>42503000000</v>
@@ -2813,8 +2924,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>296000000</v>
@@ -2923,8 +3034,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="P24">
         <v>1509000000</v>
@@ -3000,23 +3111,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>1552000000</v>
+        <v>2881000000</v>
       </c>
       <c r="C25">
-        <v>1697000000</v>
+        <v>3034000000</v>
       </c>
       <c r="D25">
-        <v>2391000000</v>
+        <v>3809000000</v>
       </c>
       <c r="E25">
-        <v>3062000000</v>
+        <v>4501000000</v>
       </c>
       <c r="F25">
-        <v>4272000000</v>
+        <v>4956000000</v>
       </c>
       <c r="G25">
         <v>4931000000</v>
@@ -3122,23 +3233,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>5544000000</v>
+        <v>6685000000</v>
       </c>
       <c r="C26">
-        <v>5518000000</v>
+        <v>6640000000</v>
       </c>
       <c r="D26">
-        <v>6138000000</v>
+        <v>7309000000</v>
       </c>
       <c r="E26">
-        <v>6134000000</v>
+        <v>7334000000</v>
       </c>
       <c r="F26">
-        <v>6247000000</v>
+        <v>7516000000</v>
       </c>
       <c r="G26">
         <v>7498000000</v>
@@ -3205,8 +3316,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>46532000000</v>
@@ -3327,8 +3438,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>65462000000</v>
@@ -3449,8 +3560,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>44956000000</v>
@@ -3571,8 +3682,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>292000000</v>
@@ -3693,8 +3804,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>24675000000</v>
@@ -3815,8 +3926,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>36411000000</v>
@@ -3937,23 +4048,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>32671000000</v>
+        <v>32734000000</v>
       </c>
       <c r="C33">
-        <v>32600000000</v>
+        <v>32661000000</v>
       </c>
       <c r="D33">
-        <v>31580000000</v>
+        <v>31645000000</v>
       </c>
       <c r="E33">
-        <v>35946000000</v>
+        <v>36006000000</v>
       </c>
       <c r="F33">
-        <v>37213000000</v>
+        <v>37284000000</v>
       </c>
       <c r="G33">
         <v>36874000000</v>
@@ -4059,23 +4170,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>32671000000</v>
+        <v>32734000000</v>
       </c>
       <c r="C34">
-        <v>32600000000</v>
+        <v>32661000000</v>
       </c>
       <c r="D34">
-        <v>31580000000</v>
+        <v>31645000000</v>
       </c>
       <c r="E34">
-        <v>35946000000</v>
+        <v>36006000000</v>
       </c>
       <c r="F34">
-        <v>37213000000</v>
+        <v>37284000000</v>
       </c>
       <c r="G34">
         <v>36874000000</v>
@@ -4181,8 +4292,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>98196000000</v>
@@ -4303,8 +4414,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2124000000</v>
@@ -4425,8 +4536,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E37">
         <v>3500</v>
@@ -4475,8 +4586,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>-26557000000</v>
@@ -4597,23 +4708,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>30919000000</v>
+        <v>30071000000</v>
       </c>
       <c r="C39">
-        <v>29623000000</v>
+        <v>28832000000</v>
       </c>
       <c r="D39">
-        <v>30644000000</v>
+        <v>30004000000</v>
       </c>
       <c r="E39">
-        <v>28235000000</v>
+        <v>27587000000</v>
       </c>
       <c r="F39">
-        <v>29881000000</v>
+        <v>29079000000</v>
       </c>
       <c r="G39">
         <v>32188000000</v>
@@ -4719,23 +4830,23 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>40110000000</v>
+        <v>39098000000</v>
       </c>
       <c r="C40">
-        <v>43042000000</v>
+        <v>42060000000</v>
       </c>
       <c r="D40">
-        <v>45995000000</v>
+        <v>44972000000</v>
       </c>
       <c r="E40">
-        <v>45596000000</v>
+        <v>44553000000</v>
       </c>
       <c r="F40">
-        <v>45844000000</v>
+        <v>44742000000</v>
       </c>
       <c r="G40">
         <v>45158000000</v>
